--- a/data/LBSPR.xlsx
+++ b/data/LBSPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/WCS-USAID/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B92EF-746F-1342-A015-DE985CB721AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F146F-B43D-2F44-BD19-E10D5E4F002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="3660" windowWidth="22660" windowHeight="16940" xr2:uid="{F495A52F-370A-1F4E-99BE-33353DFDFECB}"/>
+    <workbookView xWindow="13800" yWindow="3180" windowWidth="22660" windowHeight="16940" xr2:uid="{F495A52F-370A-1F4E-99BE-33353DFDFECB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,9 +458,24 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="e">
+      <c r="B2">
+        <v>0.64</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
         <f>B2/C2</f>
-        <v>#DIV/0!</v>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="E2">
+        <v>40.5</v>
+      </c>
+      <c r="F2">
+        <v>17.3</v>
+      </c>
+      <c r="G2">
+        <v>31.1</v>
       </c>
     </row>
   </sheetData>
